--- a/empresas_exportadas.xlsx
+++ b/empresas_exportadas.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,6 +1134,608 @@
       <c r="K16" t="inlineStr">
         <is>
           <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>755</v>
+      </c>
+      <c r="B17" t="n">
+        <v>653940</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25957402000100</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AGUINALDO FERREIRA GUIMARAES 52205215949</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1010004677</v>
+      </c>
+      <c r="F17" t="n">
+        <v>25390</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Serviços de usinagem, torneiria e solda</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>755</v>
+      </c>
+      <c r="B18" t="n">
+        <v>653940</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25957402000100</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>AGUINALDO FERREIRA GUIMARAES 52205215949</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1010004677</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33112</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Manutenção e reparação de tanques, reservatórios metálicos e caldeiras, exceto para veículos</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>755</v>
+      </c>
+      <c r="B19" t="n">
+        <v>653940</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25957402000100</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AGUINALDO FERREIRA GUIMARAES 52205215949</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1010004677</v>
+      </c>
+      <c r="F19" t="n">
+        <v>33210</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Instalação de máquinas e equipamentos industriais</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>755</v>
+      </c>
+      <c r="B20" t="n">
+        <v>654199</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12600930000165</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DEBORAH CRISTINA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1010003441</v>
+      </c>
+      <c r="F20" t="n">
+        <v>49302</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Transporte rodoviário de carga, exceto produtos perigosos e mudanças, intermunicipal, interestadual e internacional</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>755</v>
+      </c>
+      <c r="B21" t="n">
+        <v>654200</v>
+      </c>
+      <c r="C21" t="n">
+        <v>44506663000158</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DIEGO DA SILVA SOARES 01546477640</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1010008195</v>
+      </c>
+      <c r="F21" t="n">
+        <v>25390</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Serviços de usinagem, torneiria e solda</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>755</v>
+      </c>
+      <c r="B22" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F22" t="n">
+        <v>45307</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Comércio por atacado de peças e acessórios novos para veículos automotores</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>755</v>
+      </c>
+      <c r="B23" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F23" t="n">
+        <v>52290</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Serviços de reboque de veículos</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>755</v>
+      </c>
+      <c r="B24" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F24" t="n">
+        <v>45111</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Comércio a varejo de automóveis, camionetas e utilitários novos</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>755</v>
+      </c>
+      <c r="B25" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45111</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Comércio a varejo de automóveis, camionetas e utilitários usados</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>755</v>
+      </c>
+      <c r="B26" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F26" t="n">
+        <v>45200</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Serviços de manutenção e reparação mecânica de veículos automotores</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>755</v>
+      </c>
+      <c r="B27" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F27" t="n">
+        <v>45200</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Serviços de lanternagem ou funilaria e pintura de veículos automotores</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>755</v>
+      </c>
+      <c r="B28" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F28" t="n">
+        <v>45200</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Serviços de manutenção e reparação elétrica de veículos automotores</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>755</v>
+      </c>
+      <c r="B29" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F29" t="n">
+        <v>45307</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Comércio a varejo de peças e acessórios novos para veículos automotores</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>755</v>
+      </c>
+      <c r="B30" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F30" t="n">
+        <v>45307</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Comércio a varejo de peças e acessórios usados para veículos automotores</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:25.972067</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,10 +3151,8 @@
           <t>MARYANNE PAULLA CORDEIRO</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>01010003301</t>
-        </is>
+      <c r="G11" t="n">
+        <v>1010003301</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -2566,10 +3166,8 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>32920000</t>
-        </is>
+      <c r="P11" t="n">
+        <v>32920000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -2641,6 +3239,534 @@
       <c r="AR11" t="inlineStr">
         <is>
           <t>EMPRESA NECESSITA DE REGULARIZAÇÃO AMBIENTAL E VIGILANCIA SANITARIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>653940</v>
+      </c>
+      <c r="B12" t="n">
+        <v>755</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:27.157242</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>25957402000100</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>AGUINALDO FERREIRA GUIMARAES 52205215949</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1010004677</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>32920000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Jose Gabriel de Resende</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>APT 102</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Tereza Cristina</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>SÃO JOAQUIM DE BICAS</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>AV</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AG12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2135</v>
+      </c>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>2024-05-02 14:39:20.324</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>654199</v>
+      </c>
+      <c r="B13" t="n">
+        <v>755</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:27.157242</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>12600930000165</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DEBORAH CRISTINA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1010003441</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>32920000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>ESPANHA</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>CASA: 2;</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>ALVORADA INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>SÃO JOAQUIM DE BICAS</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
+        <v>8000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2135</v>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>2024-05-02 14:44:49.192</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>654200</v>
+      </c>
+      <c r="B14" t="n">
+        <v>755</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:27.157242</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>44506663000158</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DIEGO DA SILVA SOARES 01546477640</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1010008195</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>32920000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>JOSE GERALDO DE QUEIROZ</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>DISTRITO INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>SÃO JOAQUIM DE BICAS</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>11AV</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>98251147</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>RAFAELASOUZA3807@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>2135</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>D&amp;G SOLDAS</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>2024-05-02 14:44:50.275</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>2021-12-07 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>2022-07-14 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>2021-12-07 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>2022-07-14 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>654201</v>
+      </c>
+      <c r="B15" t="n">
+        <v>755</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:27.157242</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2699802000167</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>01010003352</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Ativa</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>32920000</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>OESTE</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>CAMPOS SAO JOAQUIM</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>SÃO JOAQUIM DE BICAS</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>99564310</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>ANACAROLINAMICAELA21@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AG15" t="n">
+        <v>30000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2062</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>PAULAO AUTO PECAS</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>2024-05-02 14:44:51.322</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>2012-01-01 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>2023-12-31 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>23423FWEDW</t>
         </is>
       </c>
     </row>
@@ -2655,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3512,10 +4638,8 @@
       <c r="B15" t="n">
         <v>653864</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10797390000126</t>
-        </is>
+      <c r="C15" t="n">
+        <v>10797390000126</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -3562,6 +4686,285 @@
       </c>
       <c r="Y15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>755</v>
+      </c>
+      <c r="B16" t="n">
+        <v>653940</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25957402000100</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AGUINALDO FERREIRA GUIMARAES 52205215949</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1010004677</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:32.637972</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>AGUINALDO FERREIRA GUIMARAES</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>52205215949</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2016-08-16 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>755</v>
+      </c>
+      <c r="B17" t="n">
+        <v>654199</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12600930000165</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DEBORAH CRISTINA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1010003441</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:32.637972</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>DEBORAH CRISTINA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6581078603</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2010-09-29 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>755</v>
+      </c>
+      <c r="B18" t="n">
+        <v>654200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>44506663000158</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DIEGO DA SILVA SOARES 01546477640</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1010008195</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:32.637972</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>DIEGO DA SILVA SOARES</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1546477640</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2021-12-07 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>755</v>
+      </c>
+      <c r="B19" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>02699802000167</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:32.637972</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ANA CAROLINA MICAELA SOUZA SILVA</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>15765352669</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2022-12-23 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>755</v>
+      </c>
+      <c r="B20" t="n">
+        <v>654201</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>02699802000167</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PAULO CESAR DA SILVA - PAULAO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1010003352</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-06-02 11:46:32.637972</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PAULO HENRIQUE SOUZA SILVA</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>15765381685</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2022-12-23 00:00:00.0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
